--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_nrs.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_nrs.xlsx
@@ -70,22 +70,25 @@
     <t>t110_t</t>
   </si>
   <si>
+    <t>p1171_14_t</t>
+  </si>
+  <si>
     <t>p110_t</t>
   </si>
   <si>
-    <t>p1171_14_t</t>
-  </si>
-  <si>
     <t>p1143_t</t>
   </si>
   <si>
     <t>p4023_t</t>
   </si>
   <si>
+    <t>p1175_01_t</t>
+  </si>
+  <si>
     <t>p4022_t</t>
   </si>
   <si>
-    <t>p1175_01_t</t>
+    <t>p1137_t</t>
   </si>
   <si>
     <t>p301d_t</t>
@@ -94,46 +97,46 @@
     <t>p558a1_t</t>
   </si>
   <si>
+    <t>p104b1_t</t>
+  </si>
+  <si>
+    <t>p316a2_t</t>
+  </si>
+  <si>
     <t>p558c_t_6.0</t>
   </si>
   <si>
-    <t>p1137_t</t>
-  </si>
-  <si>
-    <t>p104b1_t</t>
+    <t>p558d_t_3.0</t>
+  </si>
+  <si>
+    <t>p1136_t</t>
+  </si>
+  <si>
+    <t>p558d_t_1.0</t>
   </si>
   <si>
     <t>p501_t</t>
   </si>
   <si>
-    <t>p316a2_t</t>
-  </si>
-  <si>
-    <t>p1136_t</t>
-  </si>
-  <si>
-    <t>p558d_t_3.0</t>
+    <t>p1144_t</t>
   </si>
   <si>
     <t>p599_t_1.0</t>
   </si>
   <si>
-    <t>p558d_t_1.0</t>
-  </si>
-  <si>
-    <t>p1144_t</t>
+    <t>p4021_t</t>
+  </si>
+  <si>
+    <t>ocu500_t_4.0</t>
+  </si>
+  <si>
+    <t>p1171_08_t</t>
   </si>
   <si>
     <t>p401_t</t>
   </si>
   <si>
-    <t>p1171_08_t</t>
-  </si>
-  <si>
-    <t>ocu500_t_4.0</t>
-  </si>
-  <si>
-    <t>p4021_t</t>
+    <t>p300a_t</t>
   </si>
   <si>
     <t>p558c_t_1.0</t>
@@ -142,34 +145,31 @@
     <t>p559_04_t</t>
   </si>
   <si>
-    <t>p300a_t</t>
+    <t>p110a_t</t>
+  </si>
+  <si>
+    <t>p558c_t_7.0</t>
+  </si>
+  <si>
+    <t>p104b2_t</t>
+  </si>
+  <si>
+    <t>p1175_15_t</t>
   </si>
   <si>
     <t>p4025_t</t>
   </si>
   <si>
-    <t>p110a_t</t>
-  </si>
-  <si>
-    <t>p558c_t_7.0</t>
+    <t>p112a_t</t>
   </si>
   <si>
     <t>p599_t_2.0</t>
   </si>
   <si>
-    <t>p1175_15_t</t>
-  </si>
-  <si>
-    <t>p112a_t</t>
-  </si>
-  <si>
     <t>p414_02_t</t>
   </si>
   <si>
-    <t>p104b2_t</t>
-  </si>
-  <si>
-    <t>p22_t</t>
+    <t>p558c_t_5.0</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.06579652338227072</v>
+        <v>0.06567082039510189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06410032162739018</v>
+        <v>0.06474581036701395</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.04979503741810264</v>
+        <v>0.04967489380414086</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04792687834708918</v>
+        <v>0.04728545825753316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04101908217845213</v>
+        <v>0.04130375635385695</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03857724392127998</v>
+        <v>0.03919434047697393</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03424421988485058</v>
+        <v>0.03456276407277017</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03274345850527341</v>
+        <v>0.03127370575712987</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02728033513813467</v>
+        <v>0.02813669478513272</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.02336184425099189</v>
+        <v>0.02305649790402473</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01660662404413709</v>
+        <v>0.01614303199499406</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.01346752601535038</v>
+        <v>0.0137233937626443</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.01324697905687183</v>
+        <v>0.01355028656602251</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.01169518810042184</v>
+        <v>0.01200435817804145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01113879155274774</v>
+        <v>0.01107682752597535</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01039608246766681</v>
+        <v>0.01101712535831956</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01016906190999051</v>
+        <v>0.01026433273520711</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01000228551631463</v>
+        <v>0.01004962105073173</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.009813665369644405</v>
+        <v>0.009791856803515341</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.009735917830251939</v>
+        <v>0.0097519641494541</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.009697847751246163</v>
+        <v>0.009586371395338265</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.009423574612245682</v>
+        <v>0.009505340488797588</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009405668234909931</v>
+        <v>0.009163958467361656</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.009254178169280716</v>
+        <v>0.009070373960725702</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.009088738800593339</v>
+        <v>0.009068595977466539</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.009083871755500891</v>
+        <v>0.008947381873860686</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.009002358144211719</v>
+        <v>0.008863878962397367</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.008921092063516585</v>
+        <v>0.008786797165410443</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.008919779099183744</v>
+        <v>0.008770178949581965</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.008758997678495747</v>
+        <v>0.008642759855460947</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.008681326569811632</v>
+        <v>0.008594797749585078</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.008562195972039848</v>
+        <v>0.008554221954218202</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.008540739668731485</v>
+        <v>0.008550874018682566</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.008521195397721254</v>
+        <v>0.008306260429903374</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.008022228821970174</v>
+        <v>0.008037081433082124</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.007995863629525354</v>
+        <v>0.007974022597165042</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.007889250205711292</v>
+        <v>0.007943825184009044</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.007881616166246689</v>
+        <v>0.007811407780316003</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.007641674623291485</v>
+        <v>0.007665067664574281</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.007610963869069185</v>
+        <v>0.007493355561986531</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.007578298211272166</v>
+        <v>0.00745984723414361</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.007233903653454705</v>
+        <v>0.007446001229492708</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.007201783664346303</v>
+        <v>0.007243133092325298</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.007079375420776154</v>
+        <v>0.007231714474304585</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.00695280460611533</v>
+        <v>0.007159452429206337</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.006913279279532259</v>
+        <v>0.007026947153647543</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.006888331489145219</v>
+        <v>0.006913236320965871</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.006882452853800619</v>
+        <v>0.006833469427536416</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.006850841180497183</v>
+        <v>0.006717501992204699</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.006777601750769325</v>
+        <v>0.006578258511416816</v>
       </c>
     </row>
   </sheetData>

--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_nrs.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_nrs.xlsx
@@ -70,79 +70,82 @@
     <t>t110_t</t>
   </si>
   <si>
+    <t>p110_t</t>
+  </si>
+  <si>
     <t>p1171_14_t</t>
   </si>
   <si>
-    <t>p110_t</t>
-  </si>
-  <si>
     <t>p1143_t</t>
   </si>
   <si>
     <t>p4023_t</t>
   </si>
   <si>
+    <t>p4022_t</t>
+  </si>
+  <si>
     <t>p1175_01_t</t>
   </si>
   <si>
-    <t>p4022_t</t>
+    <t>p301d_t</t>
+  </si>
+  <si>
+    <t>p558a1_t</t>
+  </si>
+  <si>
+    <t>p558c_t_6.0</t>
   </si>
   <si>
     <t>p1137_t</t>
   </si>
   <si>
-    <t>p301d_t</t>
-  </si>
-  <si>
-    <t>p558a1_t</t>
-  </si>
-  <si>
     <t>p104b1_t</t>
   </si>
   <si>
+    <t>p501_t</t>
+  </si>
+  <si>
     <t>p316a2_t</t>
   </si>
   <si>
-    <t>p558c_t_6.0</t>
+    <t>p1136_t</t>
   </si>
   <si>
     <t>p558d_t_3.0</t>
   </si>
   <si>
-    <t>p1136_t</t>
+    <t>p599_t_1.0</t>
   </si>
   <si>
     <t>p558d_t_1.0</t>
   </si>
   <si>
-    <t>p501_t</t>
-  </si>
-  <si>
     <t>p1144_t</t>
   </si>
   <si>
-    <t>p599_t_1.0</t>
+    <t>p401_t</t>
+  </si>
+  <si>
+    <t>p1171_08_t</t>
+  </si>
+  <si>
+    <t>ocu500_t_4.0</t>
   </si>
   <si>
     <t>p4021_t</t>
   </si>
   <si>
-    <t>ocu500_t_4.0</t>
-  </si>
-  <si>
-    <t>p1171_08_t</t>
-  </si>
-  <si>
-    <t>p401_t</t>
+    <t>p558c_t_1.0</t>
+  </si>
+  <si>
+    <t>p559_04_t</t>
   </si>
   <si>
     <t>p300a_t</t>
   </si>
   <si>
-    <t>p558c_t_1.0</t>
-  </si>
-  <si>
-    <t>p559_04_t</t>
+    <t>p4025_t</t>
   </si>
   <si>
     <t>p110a_t</t>
@@ -151,25 +154,22 @@
     <t>p558c_t_7.0</t>
   </si>
   <si>
+    <t>p599_t_2.0</t>
+  </si>
+  <si>
+    <t>p1175_15_t</t>
+  </si>
+  <si>
+    <t>p112a_t</t>
+  </si>
+  <si>
+    <t>p414_02_t</t>
+  </si>
+  <si>
     <t>p104b2_t</t>
   </si>
   <si>
-    <t>p1175_15_t</t>
-  </si>
-  <si>
-    <t>p4025_t</t>
-  </si>
-  <si>
-    <t>p112a_t</t>
-  </si>
-  <si>
-    <t>p599_t_2.0</t>
-  </si>
-  <si>
-    <t>p414_02_t</t>
-  </si>
-  <si>
-    <t>p558c_t_5.0</t>
+    <t>p22_t</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.06567082039510189</v>
+        <v>0.06579652338227072</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06474581036701395</v>
+        <v>0.06410032162739018</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.04967489380414086</v>
+        <v>0.04979503741810264</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04728545825753316</v>
+        <v>0.04792687834708918</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04130375635385695</v>
+        <v>0.04101908217845213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03919434047697393</v>
+        <v>0.03857724392127998</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03456276407277017</v>
+        <v>0.03424421988485058</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.03127370575712987</v>
+        <v>0.03274345850527341</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02813669478513272</v>
+        <v>0.02728033513813467</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.02305649790402473</v>
+        <v>0.02336184425099189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01614303199499406</v>
+        <v>0.01660662404413709</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.0137233937626443</v>
+        <v>0.01346752601535038</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.01355028656602251</v>
+        <v>0.01324697905687183</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.01200435817804145</v>
+        <v>0.01169518810042184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01107682752597535</v>
+        <v>0.01113879155274774</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01101712535831956</v>
+        <v>0.01039608246766681</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01026433273520711</v>
+        <v>0.01016906190999051</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01004962105073173</v>
+        <v>0.01000228551631463</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.009791856803515341</v>
+        <v>0.009813665369644405</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0097519641494541</v>
+        <v>0.009735917830251939</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.009586371395338265</v>
+        <v>0.009697847751246163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.009505340488797588</v>
+        <v>0.009423574612245682</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009163958467361656</v>
+        <v>0.009405668234909931</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.009070373960725702</v>
+        <v>0.009254178169280716</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.009068595977466539</v>
+        <v>0.009088738800593339</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.008947381873860686</v>
+        <v>0.009083871755500891</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.008863878962397367</v>
+        <v>0.009002358144211719</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.008786797165410443</v>
+        <v>0.008921092063516585</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.008770178949581965</v>
+        <v>0.008919779099183744</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.008642759855460947</v>
+        <v>0.008758997678495747</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.008594797749585078</v>
+        <v>0.008681326569811632</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.008554221954218202</v>
+        <v>0.008562195972039848</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.008550874018682566</v>
+        <v>0.008540739668731485</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.008306260429903374</v>
+        <v>0.008521195397721254</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.008037081433082124</v>
+        <v>0.008022228821970174</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.007974022597165042</v>
+        <v>0.007995863629525354</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.007943825184009044</v>
+        <v>0.007889250205711292</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.007811407780316003</v>
+        <v>0.007881616166246689</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.007665067664574281</v>
+        <v>0.007641674623291485</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.007493355561986531</v>
+        <v>0.007610963869069185</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.00745984723414361</v>
+        <v>0.007578298211272166</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.007446001229492708</v>
+        <v>0.007233903653454705</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.007243133092325298</v>
+        <v>0.007201783664346303</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.007231714474304585</v>
+        <v>0.007079375420776154</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.007159452429206337</v>
+        <v>0.00695280460611533</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.007026947153647543</v>
+        <v>0.006913279279532259</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.006913236320965871</v>
+        <v>0.006888331489145219</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.006833469427536416</v>
+        <v>0.006882452853800619</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.006717501992204699</v>
+        <v>0.006850841180497183</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.006578258511416816</v>
+        <v>0.006777601750769325</v>
       </c>
     </row>
   </sheetData>
